--- a/static/sample_product_upload.xlsx
+++ b/static/sample_product_upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vvmagro\VVMAgro\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{451E789A-91F2-4991-B539-03D89F40D83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167B2F33-A161-449F-8F6A-6816B91F8A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>name</t>
   </si>
@@ -62,6 +62,81 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>Tractor Model A</t>
+  </si>
+  <si>
+    <t>Tractor Model B</t>
+  </si>
+  <si>
+    <t>Tractor Model C</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>FirstPipeline</t>
+  </si>
+  <si>
+    <t>87019010</t>
+  </si>
+  <si>
+    <t>87019020</t>
+  </si>
+  <si>
+    <t>87019030</t>
+  </si>
+  <si>
+    <t>Tractor for agricultural use</t>
+  </si>
+  <si>
+    <t>Tractor with 4WD</t>
+  </si>
+  <si>
+    <t>Compact tractor</t>
+  </si>
+  <si>
+    <t>Government HSN Code List</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Company Catalog</t>
+  </si>
+  <si>
+    <t>Agricultural tractor</t>
+  </si>
+  <si>
+    <t>Four-wheel drive tractor</t>
+  </si>
+  <si>
+    <t>Small size tractor</t>
+  </si>
+  <si>
+    <t>goods</t>
+  </si>
+  <si>
+    <t>phase_1</t>
+  </si>
+  <si>
+    <t>phase_2</t>
+  </si>
+  <si>
+    <t>phase_3</t>
+  </si>
+  <si>
+    <t>Heavy-duty agricultural tractor</t>
+  </si>
+  <si>
+    <t>4WD tractor suitable for rough terrain</t>
+  </si>
+  <si>
+    <t>Compact and fuel-efficient tractor</t>
   </si>
 </sst>
 </file>
@@ -429,13 +504,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="P4" activeCellId="1" sqref="A2 A2:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -479,6 +558,138 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>850000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>920000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>780000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
